--- a/data/perfis_airbnb_cincinnati-ohio.xlsx
+++ b/data/perfis_airbnb_cincinnati-ohio.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -808,6 +808,146 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>cincinnati ohio</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Titulo nao capturado</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Polo</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/users/profile/1470582944133983784</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/1373860949473153914</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2026-02-17 08:35:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>cincinnati ohio</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Titulo nao capturado</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Luis</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/users/profile/1468558317779483307</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/1323869025383219675</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2026-02-17 08:35:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>cincinnati ohio</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Titulo nao capturado</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Nina</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/users/profile/1470216153695900190</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/1527173270680520266</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2026-02-17 08:35:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>cincinnati ohio</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Titulo nao capturado</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Rachel</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/users/profile/1469827531520751646</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/913329021910207678</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2026-02-17 08:36:03</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
